--- a/Database Art.xlsx
+++ b/Database Art.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AEDE16-E902-4CE1-8B68-B144756D2647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A9AC78-10DB-48AD-A42A-04EF23630E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EB200CBA-0234-438A-B546-44F1CD06BC02}"/>
+    <workbookView xWindow="7608" yWindow="2604" windowWidth="10680" windowHeight="10704" xr2:uid="{EB200CBA-0234-438A-B546-44F1CD06BC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="594">
   <si>
     <t>Name</t>
   </si>
@@ -1808,6 +1808,15 @@
   </si>
   <si>
     <t>cl010095504</t>
+  </si>
+  <si>
+    <t>Bas-relief : Ananie rendant la vue à Saül</t>
+  </si>
+  <si>
+    <t>https://collections.louvre.fr/en/ark:/53355/cl010098703</t>
+  </si>
+  <si>
+    <t>cl010098703</t>
   </si>
 </sst>
 </file>
@@ -2170,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ECAD4-9140-4E39-AE48-FCFAEB4A914E}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,6 +4391,17 @@
       </c>
       <c r="C200" s="1" t="s">
         <v>589</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>591</v>
+      </c>
+      <c r="B201" t="s">
+        <v>593</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -4585,8 +4605,9 @@
     <hyperlink ref="C198" r:id="rId197" xr:uid="{31F8E57C-1657-46A3-8E95-862BE1891A6F}"/>
     <hyperlink ref="C199" r:id="rId198" xr:uid="{81759A32-AB9F-442F-8768-8B72DEAAF258}"/>
     <hyperlink ref="C200" r:id="rId199" xr:uid="{B4B07C1B-5C3E-4265-8810-AA19E318A4EE}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{560DD9A9-076C-475F-A35F-633244C68956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId200"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId201"/>
 </worksheet>
 </file>
--- a/Database Art.xlsx
+++ b/Database Art.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A9AC78-10DB-48AD-A42A-04EF23630E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30C7D76-BE13-464B-9CDF-99E58283BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7608" yWindow="2604" windowWidth="10680" windowHeight="10704" xr2:uid="{EB200CBA-0234-438A-B546-44F1CD06BC02}"/>
+    <workbookView xWindow="-900" yWindow="1224" windowWidth="10680" windowHeight="10704" xr2:uid="{EB200CBA-0234-438A-B546-44F1CD06BC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="597">
   <si>
     <t>Name</t>
   </si>
@@ -1817,6 +1817,15 @@
   </si>
   <si>
     <t>cl010098703</t>
+  </si>
+  <si>
+    <t>https://collections.louvre.fr/en/ark:/53355/cl010055782</t>
+  </si>
+  <si>
+    <t>cl010055782</t>
+  </si>
+  <si>
+    <t>La Force, figure allégorique</t>
   </si>
 </sst>
 </file>
@@ -2181,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ECAD4-9140-4E39-AE48-FCFAEB4A914E}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2260,13 +2269,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>596</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>595</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
